--- a/prova.xlsx
+++ b/prova.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="274">
   <si>
     <t>Sezione</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Origine</t>
+  </si>
+  <si>
+    <t>Descrizione Origine</t>
   </si>
   <si>
     <t>0. SEZIONE: ANAGRAFICA</t>
@@ -1212,13 +1215,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,100 +1252,103 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1354,134 +1360,134 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1489,16 +1495,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1506,16 +1512,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1523,16 +1529,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1540,16 +1546,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1557,16 +1563,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1574,16 +1580,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1591,16 +1597,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D23" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1608,16 +1614,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1625,16 +1631,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1642,16 +1648,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D26" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1659,16 +1665,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1676,16 +1682,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1693,16 +1699,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1710,16 +1716,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1727,16 +1733,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1744,22 +1750,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1767,7 +1773,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1775,25 +1781,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F34" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H34" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1801,25 +1807,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H35" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1827,22 +1833,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G36" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1850,25 +1856,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G37" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H37" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1876,16 +1882,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1893,19 +1899,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1913,19 +1919,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E40" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1933,22 +1939,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D41" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E41" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G41" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1956,19 +1962,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E42" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1976,22 +1982,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G43" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1999,7 +2005,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2007,22 +2013,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G45" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2030,7 +2036,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2038,7 +2044,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2046,7 +2052,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2054,7 +2060,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2062,7 +2068,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2070,7 +2076,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2078,7 +2084,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2086,7 +2092,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2094,7 +2100,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2102,7 +2108,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2110,19 +2116,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D56" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2130,7 +2136,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2138,25 +2144,25 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F58" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2164,7 +2170,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2172,7 +2178,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2180,7 +2186,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2188,7 +2194,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2196,7 +2202,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2204,7 +2210,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2212,7 +2218,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2220,7 +2226,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2228,7 +2234,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2236,7 +2242,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2244,7 +2250,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2252,7 +2258,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2260,7 +2266,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2268,7 +2274,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2276,19 +2282,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2296,16 +2302,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C74" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2313,19 +2319,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2333,10 +2339,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2344,10 +2350,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2355,16 +2361,16 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D78" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2372,19 +2378,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C79" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F79" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2392,10 +2398,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C80" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2403,25 +2409,25 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G81" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2429,7 +2435,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2437,19 +2443,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E83" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2457,25 +2463,25 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D84" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2483,25 +2489,25 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C85" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D85" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2509,10 +2515,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2520,10 +2526,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2531,10 +2537,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2542,16 +2548,16 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D89" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2559,16 +2565,16 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E90" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2576,16 +2582,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D91" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2593,10 +2599,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C92" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2604,7 +2610,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2612,19 +2618,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2632,22 +2638,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D95" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2655,16 +2661,16 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C96" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D96" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E96" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -2672,31 +2678,31 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D97" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G97" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H97" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -2704,10 +2710,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C98" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2715,16 +2721,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C99" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -2732,16 +2738,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D100" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E100" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -2749,16 +2755,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D101" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -2766,16 +2772,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -2783,19 +2789,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C103" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D103" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E103" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F103" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>

--- a/prova.xlsx
+++ b/prova.xlsx
@@ -46,7 +46,7 @@
     <t>Origine</t>
   </si>
   <si>
-    <t>Descrizione Origine</t>
+    <t>Record Origine</t>
   </si>
   <si>
     <t>0. SEZIONE: ANAGRAFICA</t>
